--- a/datasets/transactions_11122022.xlsx
+++ b/datasets/transactions_11122022.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N113"/>
+  <dimension ref="A1:M99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,11 +504,6 @@
           <t>Expense</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fees  </t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -568,7 +563,6 @@
           <t>Eating Out</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -620,7 +614,6 @@
         <v>0</v>
       </c>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,7 +673,6 @@
           <t>Eating Out</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -740,7 +732,6 @@
           <t>Gasoline</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -800,7 +791,6 @@
           <t>Eating Out</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -860,7 +850,6 @@
           <t>Groceries</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -920,7 +909,6 @@
           <t>Parking</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -980,7 +968,6 @@
           <t>Services</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1040,7 +1027,6 @@
           <t>Insurance</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1100,7 +1086,6 @@
           <t>Eating Out</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1160,7 +1145,6 @@
           <t>Eating Out</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1220,7 +1204,6 @@
           <t>Services</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1280,7 +1263,6 @@
           <t>Parking</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1340,7 +1322,6 @@
           <t>Coffee</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1400,7 +1381,6 @@
           <t>Eating Out</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1460,7 +1440,6 @@
           <t>Groceries</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1520,7 +1499,6 @@
           <t>Eating Out</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1580,7 +1558,6 @@
           <t>Coffee</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1640,7 +1617,6 @@
           <t>Groceries</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1700,7 +1676,6 @@
           <t>Eating Out</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1760,7 +1735,6 @@
           <t>Services</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1820,7 +1794,6 @@
           <t>Coffee</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1880,7 +1853,6 @@
           <t>Eating Out</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1932,7 +1904,6 @@
         <v>0</v>
       </c>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1992,7 +1963,6 @@
           <t>Services</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -2052,7 +2022,6 @@
           <t>Gasoline</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -2112,7 +2081,6 @@
           <t>Groceries</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -2172,7 +2140,6 @@
           <t>Laundry</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -2232,7 +2199,6 @@
           <t>Entertainment</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -2292,7 +2258,6 @@
           <t>Eating Out</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -2352,7 +2317,6 @@
           <t>Coffee</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -2412,7 +2376,6 @@
           <t>Coffee</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -2472,7 +2435,6 @@
           <t>Eating Out</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -2532,7 +2494,6 @@
           <t>Home</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -2592,7 +2553,6 @@
           <t>Coffee</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -2652,7 +2612,6 @@
           <t>Eating Out</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -2712,7 +2671,6 @@
           <t>Home</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -2772,7 +2730,6 @@
           <t>Donation</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2832,7 +2789,6 @@
           <t>Eating Out</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -2892,7 +2848,6 @@
           <t>Entertainment</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2940,7 +2895,6 @@
         <v>0</v>
       </c>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -3000,7 +2954,6 @@
           <t>Gasoline</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -3060,7 +3013,6 @@
           <t>Groceries</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -3120,7 +3072,6 @@
           <t>Parking</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -3180,7 +3131,6 @@
           <t>Eating Out</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -3240,7 +3190,6 @@
           <t>Eating Out</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -3300,7 +3249,6 @@
           <t>Gasoline</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -3360,7 +3308,6 @@
           <t>Eating Out</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -3420,7 +3367,6 @@
           <t>Haircut</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -3480,7 +3426,6 @@
           <t>Jeep</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -3540,7 +3485,6 @@
           <t>Groceries</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -3600,7 +3544,6 @@
           <t>Haircut</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -3660,7 +3603,6 @@
           <t>Eating Out</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -3720,7 +3662,6 @@
           <t>Coffee</t>
         </is>
       </c>
-      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -3780,7 +3721,6 @@
           <t>Clothes</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -3840,7 +3780,6 @@
           <t>Coffee</t>
         </is>
       </c>
-      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -3900,7 +3839,6 @@
           <t>Eating Out</t>
         </is>
       </c>
-      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -3960,7 +3898,6 @@
           <t>Coffee</t>
         </is>
       </c>
-      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -4020,7 +3957,6 @@
           <t>Coffee</t>
         </is>
       </c>
-      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -4080,7 +4016,6 @@
           <t>Coffee</t>
         </is>
       </c>
-      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -4140,7 +4075,6 @@
           <t>Internet</t>
         </is>
       </c>
-      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -4200,7 +4134,6 @@
           <t>Laundry</t>
         </is>
       </c>
-      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -4260,7 +4193,6 @@
           <t>Entertainment</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -4320,7 +4252,6 @@
           <t>Home</t>
         </is>
       </c>
-      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -4378,7 +4309,6 @@
           <t>Groceries</t>
         </is>
       </c>
-      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -4438,7 +4368,6 @@
           <t>Entertainment</t>
         </is>
       </c>
-      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -4486,7 +4415,6 @@
         <v>0</v>
       </c>
       <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -4544,7 +4472,6 @@
           <t>Gasoline</t>
         </is>
       </c>
-      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -4602,7 +4529,6 @@
           <t>Coffee</t>
         </is>
       </c>
-      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -4660,7 +4586,6 @@
           <t>Entertainment</t>
         </is>
       </c>
-      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -4718,7 +4643,6 @@
           <t>Coffee</t>
         </is>
       </c>
-      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -4778,7 +4702,6 @@
           <t>Entertainment</t>
         </is>
       </c>
-      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -4836,7 +4759,6 @@
           <t>Eating Out</t>
         </is>
       </c>
-      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -4896,7 +4818,6 @@
           <t>Entertainment</t>
         </is>
       </c>
-      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -4954,7 +4875,6 @@
           <t>Coffee</t>
         </is>
       </c>
-      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -5012,7 +4932,6 @@
           <t>Coffee</t>
         </is>
       </c>
-      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -5072,7 +4991,6 @@
           <t>Groceries</t>
         </is>
       </c>
-      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -5132,7 +5050,6 @@
           <t>Eating Out</t>
         </is>
       </c>
-      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -5192,7 +5109,6 @@
           <t>Groceries</t>
         </is>
       </c>
-      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -5252,7 +5168,6 @@
           <t>Services</t>
         </is>
       </c>
-      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -5312,7 +5227,6 @@
           <t>Groceries</t>
         </is>
       </c>
-      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -5372,7 +5286,6 @@
           <t>Services</t>
         </is>
       </c>
-      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -5432,7 +5345,6 @@
           <t>Gasoline</t>
         </is>
       </c>
-      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -5492,7 +5404,6 @@
           <t>Services</t>
         </is>
       </c>
-      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -5552,7 +5463,6 @@
           <t>Eating Out</t>
         </is>
       </c>
-      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -5612,7 +5522,6 @@
           <t>Coffee</t>
         </is>
       </c>
-      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -5672,7 +5581,6 @@
           <t>Gas</t>
         </is>
       </c>
-      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -5732,7 +5640,6 @@
           <t>Gasoline</t>
         </is>
       </c>
-      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -5792,7 +5699,6 @@
           <t>Groceries</t>
         </is>
       </c>
-      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -5852,7 +5758,6 @@
           <t>Coffee</t>
         </is>
       </c>
-      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -5912,7 +5817,6 @@
           <t>Coffee</t>
         </is>
       </c>
-      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -5972,7 +5876,6 @@
           <t>Eating Out</t>
         </is>
       </c>
-      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -6032,7 +5935,6 @@
           <t>Eating Out</t>
         </is>
       </c>
-      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -6092,7 +5994,6 @@
           <t>Eating Out</t>
         </is>
       </c>
-      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -6152,7 +6053,6 @@
           <t>Eating Out</t>
         </is>
       </c>
-      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -6212,7 +6112,6 @@
           <t>Coffee</t>
         </is>
       </c>
-      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -6272,7 +6171,6 @@
           <t>Entertainment</t>
         </is>
       </c>
-      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -6331,679 +6229,6 @@
         <is>
           <t>Services</t>
         </is>
-      </c>
-      <c r="N99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="inlineStr">
-        <is>
-          <t>611a7da5-b0dc-4e1a-88ab-3608b3fb30f8</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>11/12/2022</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>11/10/2022</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="n">
-        <v>1642.91</v>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>11/12/2022</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>Rabo</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="inlineStr">
-        <is>
-          <t>78d1fc1f-9cee-4987-b500-b129b422a4ce</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>11/12/2022</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>11/10/2022</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="n">
-        <v>100</v>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>11/12/2022</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>Rabo</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="inlineStr">
-        <is>
-          <t>54eaf878-55c1-493f-b000-34df925dcd45</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>11/12/2022</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>11/02/2022</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>KBC Management, WEB PMTS N403N6</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="n">
-        <v>-1630</v>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>11/12/2022</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>Rabo</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="inlineStr">
-        <is>
-          <t>e1e221cf-6add-4634-984d-8bd8a26a8db0</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>11/12/2022</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>11/01/2022</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>APPLECARD GSBANK PAYMENT 2211736</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="n">
-        <v>-6.11</v>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>11/12/2022</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>Rabo</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="inlineStr">
-        <is>
-          <t>a1e59b6b-6d07-46a8-8c72-d3b654a1c701</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>11/12/2022</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>10/31/2022</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>CHASE CREDIT CRD AUTOPAY 000000000481963</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="n">
-        <v>-1413.56</v>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>11/12/2022</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>Rabo</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="inlineStr">
-        <is>
-          <t>1c6726d9-b16b-44ae-b739-bf16be79e49f</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>11/12/2022</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>10/28/2022</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="n">
-        <v>1642.9</v>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>11/12/2022</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>Rabo</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="inlineStr">
-        <is>
-          <t>319857ab-6f05-41bb-8efb-1888f0fffbf8</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>11/12/2022</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>10/26/2022</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>WELLS FARGO IFI DDA TO DDA F20GQJDBW4</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>11/12/2022</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>Rabo</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="inlineStr">
-        <is>
-          <t>2699a407-ccde-48cc-aeab-899a8baeacef</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>11/12/2022</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>10/19/2022</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Check</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="n">
-        <v>-168</v>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>11/12/2022</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>Rabo</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="inlineStr">
-        <is>
-          <t>cdb32c49-a6ce-4008-99fe-6e6c2fe09dea</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>11/12/2022</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>10/19/2022</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>US TREASURY IRS PAYMENT 0350</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="n">
-        <v>-88.39</v>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>11/12/2022</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>Rabo</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="inlineStr">
-        <is>
-          <t>2fe1a625-39e3-4803-a706-702d0218e684</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>11/12/2022</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>10/18/2022</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>CHASE CREDIT CRD AUTOPAY 000000000279071</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="n">
-        <v>-973.08</v>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>11/12/2022</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>Rabo</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="inlineStr">
-        <is>
-          <t>d9411839-5834-472d-872a-ea707dd73f32</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>11/12/2022</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>10/18/2022</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Barclays Bank De P2P Vega,William</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="n">
-        <v>372.14</v>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>11/12/2022</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>Rabo</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="inlineStr">
-        <is>
-          <t>7cc74782-03e4-42af-9fdf-a744d71c6e31</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>11/12/2022</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>10/17/2022</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>VENMO PAYMENT 1022930212980</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="n">
-        <v>-79.5</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>11/12/2022</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>Rabo</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="inlineStr">
-        <is>
-          <t>c05b4171-71f0-4964-a05b-4bced521ca24</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>11/12/2022</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>10/17/2022</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>VENMO PAYMENT 1022930215113</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="n">
-        <v>-57</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>11/12/2022</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>Rabo</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="inlineStr">
-        <is>
-          <t>a1a85992-34b3-42b8-8025-d359dff74305</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>11/12/2022</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>10/14/2022</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>TOYOTA MOTOR SAL PAYROLL 568349-TMN</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
-      <c r="I113" t="n">
-        <v>1743.83</v>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>11/12/2022</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>Rabo</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7017,7 +6242,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7063,10 +6288,8 @@
           <t>ID</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
+      <c r="D2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -7085,10 +6308,8 @@
           <t>created</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
+      <c r="D3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -7107,10 +6328,8 @@
           <t>modified</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
+      <c r="D4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -7129,10 +6348,8 @@
           <t>Transaction Date</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
+      <c r="D5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -7151,10 +6368,8 @@
           <t>Post Date</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
+      <c r="D6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -7173,10 +6388,8 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
+      <c r="D7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -7195,10 +6408,8 @@
           <t>Category</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
+      <c r="D8" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -7217,10 +6428,8 @@
           <t>Kind</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
+      <c r="D9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -7239,10 +6448,8 @@
           <t>Amount</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
+      <c r="D10" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -7261,10 +6468,8 @@
           <t>Imported</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
+      <c r="D11" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -7283,10 +6488,8 @@
           <t>Card</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
+      <c r="D12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -7305,10 +6508,8 @@
           <t>Reviewed</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
+      <c r="D13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -7327,32 +6528,8 @@
           <t>Expense</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fees  </t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fees  </t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
+      <c r="D14" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
